--- a/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
@@ -1,37 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE2132-AEFD-4788-B8C2-B07BCE2D30DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="19524" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Contrasena</t>
+  </si>
+  <si>
+    <t>Contenedor</t>
+  </si>
+  <si>
+    <t>Incoterms</t>
+  </si>
+  <si>
+    <t>IdCliente</t>
+  </si>
+  <si>
+    <t>IdDireccion</t>
+  </si>
+  <si>
+    <t>IdPuerto</t>
+  </si>
+  <si>
+    <t>CapacidadDescarga</t>
+  </si>
+  <si>
+    <t>CapacidadDisponible</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>SoportaPeso</t>
+  </si>
+  <si>
+    <t>PesoProducto</t>
+  </si>
+  <si>
+    <t>Producto2</t>
+  </si>
+  <si>
+    <t>SoportaPeso2</t>
+  </si>
+  <si>
+    <t>PesoProducto2</t>
+  </si>
+  <si>
+    <t>Iterar</t>
+  </si>
+  <si>
+    <t>automated.test@grupokaizen.net</t>
+  </si>
+  <si>
+    <t>aeHFOx8jV/A=</t>
+  </si>
+  <si>
+    <t>EXW</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +125,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,214 +450,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Idioma</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Usuario</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Contrasena</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Contenedor</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Incoterms</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IdCliente</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>IdDireccion</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>IdPuerto</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CapacidadDescarga</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CapacidadDisponible</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Producto</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SoportaPeso</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>PesoProducto</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Producto2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>SoportaPeso2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>PesoProducto2</t>
-        </is>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
         <v>40</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EXW</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>55000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>45000</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>580</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>1840</v>
       </c>
-      <c r="N2" t="n">
-        <v>572</v>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
-        <v>1840</v>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
         <v>40</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
         <v>55000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>45000</v>
       </c>
-      <c r="K3" t="n">
-        <v>582</v>
+      <c r="K3">
+        <v>580</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>1840</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>312</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>2100</v>
       </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE2132-AEFD-4788-B8C2-B07BCE2D30DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="19524" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Idioma</t>
   </si>
@@ -52,19 +46,13 @@
     <t>CapacidadDisponible</t>
   </si>
   <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>SoportaPeso</t>
-  </si>
-  <si>
-    <t>PesoProducto</t>
-  </si>
-  <si>
-    <t>Producto2</t>
-  </si>
-  <si>
-    <t>SoportaPeso2</t>
+    <t>ProductoSoportaPeso</t>
+  </si>
+  <si>
+    <t>PesoProducto1</t>
+  </si>
+  <si>
+    <t>ProductoNoSoportaPeso</t>
   </si>
   <si>
     <t>PesoProducto2</t>
@@ -77,6 +65,9 @@
   </si>
   <si>
     <t>aeHFOx8jV/A=</t>
+  </si>
+  <si>
+    <t>CIF</t>
   </si>
   <si>
     <t>EXW</t>
@@ -85,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,11 +87,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -143,26 +129,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -450,25 +427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" customWidth="1"/>
-    <col min="16" max="16" width="21" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,34 +480,28 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -553,48 +513,42 @@
         <v>45000</v>
       </c>
       <c r="K2">
-        <v>580</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
+        <v>582</v>
+      </c>
+      <c r="L2">
+        <v>1840</v>
       </c>
       <c r="M2">
-        <v>1840</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="O2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -606,36 +560,69 @@
         <v>45000</v>
       </c>
       <c r="K3">
+        <v>572</v>
+      </c>
+      <c r="L3">
+        <v>1840</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>55000</v>
+      </c>
+      <c r="J4">
+        <v>45000</v>
+      </c>
+      <c r="K4">
         <v>580</v>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="L4">
         <v>1840</v>
       </c>
-      <c r="N3">
+      <c r="M4">
         <v>312</v>
       </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="N4">
         <v>2100</v>
       </c>
-      <c r="Q3">
+      <c r="O4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="M8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Idioma</t>
   </si>
@@ -61,16 +61,22 @@
     <t>Iterar</t>
   </si>
   <si>
+    <t>Resultado</t>
+  </si>
+  <si>
     <t>automated.test@grupokaizen.net</t>
   </si>
   <si>
     <t>aeHFOx8jV/A=</t>
   </si>
   <si>
+    <t>EXW</t>
+  </si>
+  <si>
     <t>CIF</t>
   </si>
   <si>
-    <t>EXW</t>
+    <t>Prueba exitosa</t>
   </si>
 </sst>
 </file>
@@ -428,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,28 +486,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -513,42 +522,45 @@
         <v>45000</v>
       </c>
       <c r="K2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L2">
         <v>1840</v>
       </c>
       <c r="M2">
+        <v>312</v>
+      </c>
+      <c r="N2">
+        <v>2100</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -560,7 +572,7 @@
         <v>45000</v>
       </c>
       <c r="K3">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="L3">
         <v>1840</v>
@@ -574,16 +586,19 @@
       <c r="O3">
         <v>1</v>
       </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -592,10 +607,10 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -607,19 +622,22 @@
         <v>45000</v>
       </c>
       <c r="K4">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L4">
         <v>1840</v>
       </c>
       <c r="M4">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -554,13 +554,13 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -572,7 +572,7 @@
         <v>45000</v>
       </c>
       <c r="K3">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="L3">
         <v>1840</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -604,13 +604,13 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -622,7 +622,7 @@
         <v>45000</v>
       </c>
       <c r="K4">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="L4">
         <v>1840</v>

--- a/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
@@ -507,10 +507,10 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -522,19 +522,19 @@
         <v>45000</v>
       </c>
       <c r="K2">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L2">
         <v>1840</v>
       </c>
       <c r="M2">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>20</v>
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -572,19 +572,19 @@
         <v>45000</v>
       </c>
       <c r="K3">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="L3">
         <v>1840</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>20</v>

--- a/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido40pies.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -554,13 +554,13 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -572,19 +572,19 @@
         <v>45000</v>
       </c>
       <c r="K3">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L3">
         <v>1840</v>
       </c>
       <c r="M3">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
         <v>20</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -604,13 +604,13 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -622,19 +622,19 @@
         <v>45000</v>
       </c>
       <c r="K4">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L4">
         <v>1840</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
         <v>20</v>
